--- a/biology/Origine et évolution du vivant/Hérédité_mendélienne/Hérédité_mendélienne.xlsx
+++ b/biology/Origine et évolution du vivant/Hérédité_mendélienne/Hérédité_mendélienne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9r%C3%A9dit%C3%A9_mend%C3%A9lienne</t>
+          <t>Hérédité_mendélienne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On utilise les termes d'hérédité mendélienne, monogénique ou monofactorielle pour caractériser la transmission des maladies dues à une mutation dans un seul gène. Ce mode de transmission suit les lois de Mendel, ce qui explique l'usage du terme "mendélienne". 
 Une mutation n'est pas nécessairement pathologique. Quand la mutation est peu importante on parle de mutation silencieuse ou polymorphisme, par contre quand une mutation entraîne une maladie on parle de l'allèle morbide.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9r%C3%A9dit%C3%A9_mend%C3%A9lienne</t>
+          <t>Hérédité_mendélienne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Évolution (biologie)
 Hérédité non mendélienne
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9r%C3%A9dit%C3%A9_mend%C3%A9lienne</t>
+          <t>Hérédité_mendélienne</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Institut de génétique humaine
  Portail de la biologie   Portail origine et évolution du vivant                    </t>
